--- a/6Timetable/data/20220222/【考え方】３回目接種枠設定（１バイアル２０回）.xlsx
+++ b/6Timetable/data/20220222/【考え方】３回目接種枠設定（１バイアル２０回）.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="予約可能数一覧（３会場）" sheetId="2" r:id="rId1"/>
     <sheet name="予約可能数一覧（巽）" sheetId="3" r:id="rId2"/>
+    <sheet name="案（巽） (2)" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="1"/>
   <extLst>
@@ -20,14 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51" uniqueCount="51">
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>にち</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55" uniqueCount="55">
   <si>
     <t>11:10</t>
   </si>
@@ -39,6 +33,43 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>にち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ごうけい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>Web枠数</t>
+    <rPh sb="3" eb="4">
+      <t>わく</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>すう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>火水金</t>
+    <rPh sb="0" eb="1">
+      <t>か</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>すい</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>きん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
     <t>金</t>
     <rPh sb="0" eb="1">
       <t>きん</t>
@@ -56,34 +87,38 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>Web枠数</t>
-    <rPh sb="3" eb="4">
+    <t>市３会場　３回目接種　曜日別　枠一覧</t>
+    <rPh sb="0" eb="1">
+      <t>し</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>かいじょう</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>かいめ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>せっしゅ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ようび</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>べつ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>わく</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>すう</t>
+    <rPh sb="16" eb="18">
+      <t>いちらん</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>火水金</t>
-    <rPh sb="0" eb="1">
-      <t>か</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>すい</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>きん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <t>14:50</t>
   </si>
   <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ごうけい</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <t>10:40</t>
   </si>
   <si>
     <t>箱数</t>
@@ -93,51 +128,17 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>14:50</t>
-  </si>
-  <si>
-    <t>市３会場　３回目接種　曜日別　枠一覧</t>
-    <rPh sb="0" eb="1">
-      <t>し</t>
+    <t>受付時刻</t>
+    <rPh sb="0" eb="2">
+      <t>うけつけ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>かいじょう</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>かいめ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>せっしゅ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ようび</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>べつ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>わく</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>いちらん</t>
+      <t>じこく</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>14:10</t>
-  </si>
-  <si>
-    <t>受付時刻</t>
-    <rPh sb="0" eb="2">
-      <t>うけつけ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>じこく</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>No</t>
@@ -148,9 +149,6 @@
       <t>ど</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>14:00</t>
   </si>
   <si>
     <r>
@@ -171,7 +169,7 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>15:30</t>
+    <t>14:00</t>
   </si>
   <si>
     <t>巽今宮　３回目接種　曜日別　枠一覧</t>
@@ -202,19 +200,22 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
+    <t>15:30</t>
+  </si>
+  <si>
     <t>13:30</t>
+  </si>
+  <si>
+    <t>13:40</t>
   </si>
   <si>
     <t>14:20</t>
   </si>
   <si>
-    <t>13:40</t>
+    <t>13:50</t>
   </si>
   <si>
     <t>16:00</t>
-  </si>
-  <si>
-    <t>13:50</t>
   </si>
   <si>
     <t>14:30</t>
@@ -223,26 +224,47 @@
     <t>14:40</t>
   </si>
   <si>
-    <t>15:20</t>
+    <t>15:00</t>
   </si>
   <si>
-    <t>15:00</t>
+    <t>15:20</t>
   </si>
   <si>
     <t>15:10</t>
   </si>
   <si>
-    <t>火</t>
-    <rPh sb="0" eb="1">
-      <t>か</t>
+    <r>
+      <t>電話</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF56585B"/>
+        <rFont val="ＭＳ ゴシック"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>でんわ</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>15:40</t>
   </si>
   <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>15:40</t>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>15:50</t>
   </si>
   <si>
     <t>週計</t>
@@ -250,9 +272,6 @@
       <t>しゅうけい</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>15:50</t>
   </si>
   <si>
     <t>10:30</t>
@@ -309,14 +328,14 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>ライプラ</t>
-  </si>
-  <si>
     <t>４月</t>
     <rPh sb="1" eb="2">
       <t>がつ</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ライプラ</t>
   </si>
   <si>
     <t>５月</t>
@@ -349,15 +368,7 @@
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-      </rPr>
-      <t>/箱で再計算</t>
+      <t>回/箱で再計算</t>
     </r>
     <rPh sb="2" eb="3">
       <t>かい</t>
@@ -367,6 +378,96 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>さいけいさん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <rPh sb="0" eb="1">
+      <t>はこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>Web数</t>
+    <rPh sb="3" eb="4">
+      <t>すう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【3月予約枠数】
+●総予約枠数
+　・市3会場＝8,160（Web:6,408、電話:1,752）（78.5%、21.5%）
+　・巽今宮＝1,120（Web:952、電話:168）（85%、15%）
+　◎合計＝9,280（Web:7,360、電話:1,920）（79.3%、20.7%）
+●市1会場あたり　予約枠数
+　◎小計2,720（Web:2,136、電話:584）（78.5%、21.5%）
+　　・水木 80人×10日＝800（Web:600、電話:200）（75%、25%）
+　　・土日240人×8日＝1,920（Web:1,536、電話:384）（80%、20%）
+</t>
+    <rPh sb="2" eb="3">
+      <t>がつ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>よやく</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>わく</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>すう</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>そう</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>し</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>たつみ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>いまみや</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ごうけい</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>し</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>かいじょう</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>よやく</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>わく</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>すう</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>しょうけい</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>すい</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>もく</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>にん</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>にち</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>でんわ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>どにち</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -1046,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1243,6 +1344,9 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,6 +1455,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,18 +1752,18 @@
   </sheetPr>
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1653,11 +1773,12 @@
     <col min="15" max="15" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1665,66 +1786,66 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="Q1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="105"/>
+        <v>51</v>
+      </c>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="15">
         <v>1</v>
@@ -1737,39 +1858,39 @@
         <v>8</v>
       </c>
       <c r="E3" s="47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="65">
         <v>44591</v>
       </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="78">
+      <c r="I3" s="71"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="79">
         <f t="shared" ref="L3:M6" si="1">$D$13*3</f>
         <v>240</v>
       </c>
-      <c r="M3" s="78">
+      <c r="M3" s="79">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N3" s="78"/>
-      <c r="O3" s="91">
+      <c r="N3" s="79"/>
+      <c r="O3" s="92">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P3" s="97">
+      <c r="P3" s="98">
         <f>SUM(I3:O3)</f>
         <v>1200</v>
       </c>
-      <c r="Q3" s="100" t="str">
+      <c r="Q3" s="101" t="str">
         <f t="shared" ref="Q3:Q9" si="2">P3/200&amp;"箱"</f>
         <v>6箱</v>
       </c>
-      <c r="R3" s="106">
+      <c r="R3" s="107">
         <v>50</v>
       </c>
     </row>
@@ -1786,42 +1907,42 @@
         <v>8</v>
       </c>
       <c r="E4" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="66">
         <v>44598</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="72">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79">
+      <c r="J4" s="79"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="80">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="92">
+      <c r="N4" s="82"/>
+      <c r="O4" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P4" s="97">
+      <c r="P4" s="98">
         <f>SUM(I4:O4)</f>
         <v>1920</v>
       </c>
-      <c r="Q4" s="100" t="str">
+      <c r="Q4" s="101" t="str">
         <f t="shared" si="2"/>
         <v>9.6箱</v>
       </c>
-      <c r="R4" s="106">
+      <c r="R4" s="107">
         <v>23</v>
       </c>
     </row>
@@ -1831,49 +1952,49 @@
         <v>3</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E5" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="66">
         <v>44605</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="80">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="92">
+      <c r="N5" s="80"/>
+      <c r="O5" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P5" s="97">
+      <c r="P5" s="98">
         <f>SUM(I5:O5)</f>
         <v>1920</v>
       </c>
-      <c r="Q5" s="100" t="str">
+      <c r="Q5" s="101" t="str">
         <f t="shared" si="2"/>
         <v>9.6箱</v>
       </c>
-      <c r="R5" s="106"/>
+      <c r="R5" s="107"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="6"/>
@@ -1881,49 +2002,49 @@
         <v>4</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E6" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="66">
         <v>44612</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="88">
+      <c r="J6" s="80"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="89">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="83">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="93">
+      <c r="N6" s="83"/>
+      <c r="O6" s="94">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P6" s="97">
+      <c r="P6" s="98">
         <f>SUM(I6:O6)</f>
         <v>1920</v>
       </c>
-      <c r="Q6" s="100" t="str">
+      <c r="Q6" s="101" t="str">
         <f t="shared" si="2"/>
         <v>9.6箱</v>
       </c>
-      <c r="R6" s="106">
+      <c r="R6" s="107">
         <v>31</v>
       </c>
     </row>
@@ -1933,40 +2054,40 @@
         <v>5</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E7" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="67">
         <v>44619</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="74">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="70">
+      <c r="J7" s="81"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="71">
         <f>SUM(I7:O7)</f>
         <v>720</v>
       </c>
-      <c r="Q7" s="101" t="str">
+      <c r="Q7" s="102" t="str">
         <f t="shared" si="2"/>
         <v>3.6箱</v>
       </c>
-      <c r="R7" s="107"/>
+      <c r="R7" s="108"/>
     </row>
     <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="6"/>
@@ -1981,42 +2102,42 @@
         <v>8</v>
       </c>
       <c r="E8" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="74">
+        <v>44</v>
+      </c>
+      <c r="I8" s="75">
         <f>SUM(I3:I7)</f>
         <v>2880</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85">
+      <c r="J8" s="75"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86">
         <f>SUM(L3:L7)</f>
         <v>960</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="86">
         <f>SUM(M3:M7)</f>
         <v>960</v>
       </c>
-      <c r="N8" s="85"/>
-      <c r="O8" s="94">
+      <c r="N8" s="86"/>
+      <c r="O8" s="95">
         <f>SUM(O3:O7)</f>
         <v>2880</v>
       </c>
-      <c r="P8" s="98">
+      <c r="P8" s="99">
         <f>SUM(P3:P7)</f>
         <v>7680</v>
       </c>
-      <c r="Q8" s="102" t="str">
+      <c r="Q8" s="103" t="str">
         <f t="shared" si="2"/>
         <v>38.4箱</v>
       </c>
-      <c r="R8" s="108">
+      <c r="R8" s="109">
         <f>SUM(R3:R7)</f>
         <v>104</v>
       </c>
@@ -2034,25 +2155,25 @@
         <v>8</v>
       </c>
       <c r="E9" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="56">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="74">
+        <v>2</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="75">
         <f>P8</f>
         <v>7680</v>
       </c>
-      <c r="Q9" s="103" t="str">
+      <c r="Q9" s="104" t="str">
         <f t="shared" si="2"/>
         <v>38.4箱</v>
       </c>
@@ -2070,18 +2191,18 @@
         <v>8</v>
       </c>
       <c r="E10" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="56">
-        <v>1</v>
-      </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="6"/>
@@ -2096,18 +2217,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="57">
-        <v>1</v>
-      </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
     </row>
     <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="6"/>
@@ -2122,50 +2243,50 @@
         <v>8</v>
       </c>
       <c r="E12" s="50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="76" t="s">
+      <c r="N12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P12" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="105" t="s">
-        <v>45</v>
+      <c r="P12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="106" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="19"/>
       <c r="C13" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13" s="34">
         <f>SUM(D3:D12)</f>
@@ -2173,40 +2294,40 @@
       </c>
       <c r="E13" s="34">
         <f>SUM(E3:E12)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" s="59">
         <f>SUM(F3:F12)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="65">
         <v>44619</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="78">
+      <c r="I13" s="71"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="79">
         <f t="shared" ref="L13:M17" si="3">$D$13*3</f>
         <v>240</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="79">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="91">
+      <c r="N13" s="79"/>
+      <c r="O13" s="92">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P13" s="97">
+      <c r="P13" s="98">
         <f>SUM(I13:O13)</f>
         <v>1200</v>
       </c>
-      <c r="Q13" s="100" t="str">
+      <c r="Q13" s="101" t="str">
         <f t="shared" ref="Q13:Q19" si="4">P13/200&amp;"箱"</f>
         <v>6箱</v>
       </c>
-      <c r="R13" s="106">
+      <c r="R13" s="107">
         <v>0</v>
       </c>
     </row>
@@ -2225,42 +2346,42 @@
         <v>10</v>
       </c>
       <c r="E14" s="51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="66">
         <v>44626</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="72">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79">
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N14" s="79"/>
-      <c r="O14" s="92">
+      <c r="N14" s="80"/>
+      <c r="O14" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P14" s="97">
+      <c r="P14" s="98">
         <f>SUM(I14:O14)</f>
         <v>1920</v>
       </c>
-      <c r="Q14" s="100" t="str">
+      <c r="Q14" s="101" t="str">
         <f t="shared" si="4"/>
         <v>9.6箱</v>
       </c>
-      <c r="R14" s="106"/>
+      <c r="R14" s="107"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6"/>
@@ -2275,42 +2396,42 @@
         <v>10</v>
       </c>
       <c r="E15" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="66">
         <v>44633</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79">
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="M15" s="79">
+      <c r="M15" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N15" s="79"/>
-      <c r="O15" s="92">
+      <c r="N15" s="80"/>
+      <c r="O15" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P15" s="97">
+      <c r="P15" s="98">
         <f>SUM(I15:O15)</f>
         <v>1920</v>
       </c>
-      <c r="Q15" s="100" t="str">
+      <c r="Q15" s="101" t="str">
         <f t="shared" si="4"/>
         <v>9.6箱</v>
       </c>
-      <c r="R15" s="106"/>
+      <c r="R15" s="107"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="6"/>
@@ -2318,49 +2439,49 @@
         <v>3</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E16" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="66">
         <v>44640</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79">
+      <c r="J16" s="82"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="M16" s="79">
+      <c r="M16" s="80">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N16" s="82"/>
-      <c r="O16" s="93">
+      <c r="N16" s="83"/>
+      <c r="O16" s="94">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P16" s="97">
+      <c r="P16" s="98">
         <f>SUM(I16:O16)</f>
         <v>1920</v>
       </c>
-      <c r="Q16" s="100" t="str">
+      <c r="Q16" s="101" t="str">
         <f t="shared" si="4"/>
         <v>9.6箱</v>
       </c>
-      <c r="R16" s="106"/>
+      <c r="R16" s="107"/>
     </row>
     <row r="17" spans="1:18" ht="15.75">
       <c r="A17" s="6"/>
@@ -2368,46 +2489,46 @@
         <v>4</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E17" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="67">
         <v>44647</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="74">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82">
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="M17" s="80">
+      <c r="M17" s="81">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="70">
+      <c r="N17" s="85"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="71">
         <f>SUM(I17:O17)</f>
         <v>1200</v>
       </c>
-      <c r="Q17" s="101" t="str">
+      <c r="Q17" s="102" t="str">
         <f t="shared" si="4"/>
         <v>6箱</v>
       </c>
-      <c r="R17" s="106"/>
+      <c r="R17" s="107"/>
     </row>
     <row r="18" spans="1:18" ht="15.75">
       <c r="A18" s="6"/>
@@ -2415,49 +2536,49 @@
         <v>5</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E18" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="74">
+        <v>44</v>
+      </c>
+      <c r="I18" s="75">
         <f>SUM(I13:I17)</f>
         <v>2880</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74">
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75">
         <f>SUM(L13:L17)</f>
         <v>1200</v>
       </c>
-      <c r="M18" s="74">
+      <c r="M18" s="75">
         <f>SUM(M13:M17)</f>
         <v>1200</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="94">
+      <c r="N18" s="86"/>
+      <c r="O18" s="95">
         <f>SUM(O13:O17)</f>
         <v>2880</v>
       </c>
-      <c r="P18" s="98">
+      <c r="P18" s="99">
         <f>SUM(P13:P17)</f>
         <v>8160</v>
       </c>
-      <c r="Q18" s="102" t="str">
+      <c r="Q18" s="103" t="str">
         <f t="shared" si="4"/>
         <v>40.8箱</v>
       </c>
-      <c r="R18" s="106"/>
+      <c r="R18" s="107"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="6"/>
@@ -2465,26 +2586,26 @@
         <v>6</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E19" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="56">
-        <v>1</v>
-      </c>
-      <c r="O19" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="74">
+        <v>2</v>
+      </c>
+      <c r="O19" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="75">
         <f>P8+P18</f>
         <v>15840</v>
       </c>
-      <c r="Q19" s="103" t="str">
+      <c r="Q19" s="104" t="str">
         <f t="shared" si="4"/>
         <v>79.2箱</v>
       </c>
@@ -2495,17 +2616,17 @@
         <v>7</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E20" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2521,10 +2642,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75">
@@ -2540,40 +2661,40 @@
         <v>10</v>
       </c>
       <c r="E22" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="69" t="s">
+      <c r="I22" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="76" t="s">
+      <c r="N22" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="69" t="s">
-        <v>8</v>
+      <c r="P22" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75">
@@ -2582,36 +2703,36 @@
         <v>10</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E23" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="65">
         <v>44647</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="91">
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="92">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P23" s="97">
+      <c r="P23" s="98">
         <f>SUM(I23:O23)</f>
         <v>720</v>
       </c>
-      <c r="Q23" s="100" t="str">
+      <c r="Q23" s="101" t="str">
         <f t="shared" ref="Q23:Q29" si="6">P23/200&amp;"箱"</f>
         <v>3.6箱</v>
       </c>
@@ -2622,45 +2743,45 @@
         <v>11</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E24" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="66">
         <v>44654</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="72">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78">
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79">
         <f t="shared" ref="L24:M27" si="7">$D$13*3</f>
         <v>240</v>
       </c>
-      <c r="M24" s="78">
+      <c r="M24" s="79">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="N24" s="79"/>
-      <c r="O24" s="92">
+      <c r="N24" s="80"/>
+      <c r="O24" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P24" s="97">
+      <c r="P24" s="98">
         <f>SUM(I24:O24)</f>
         <v>1920</v>
       </c>
-      <c r="Q24" s="100" t="str">
+      <c r="Q24" s="101" t="str">
         <f t="shared" si="6"/>
         <v>9.6箱</v>
       </c>
@@ -2678,38 +2799,38 @@
         <v>10</v>
       </c>
       <c r="E25" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="66">
         <v>44661</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79">
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="M25" s="79">
+      <c r="M25" s="80">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="N25" s="79"/>
-      <c r="O25" s="92">
+      <c r="N25" s="80"/>
+      <c r="O25" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P25" s="97">
+      <c r="P25" s="98">
         <f>SUM(I25:O25)</f>
         <v>1920</v>
       </c>
-      <c r="Q25" s="100" t="str">
+      <c r="Q25" s="101" t="str">
         <f t="shared" si="6"/>
         <v>9.6箱</v>
       </c>
@@ -2720,45 +2841,45 @@
         <v>13</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E26" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="66">
         <v>44668</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79">
+      <c r="J26" s="82"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="M26" s="79">
+      <c r="M26" s="80">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="N26" s="79"/>
-      <c r="O26" s="92">
+      <c r="N26" s="80"/>
+      <c r="O26" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P26" s="97">
+      <c r="P26" s="98">
         <f>SUM(I26:O26)</f>
         <v>1920</v>
       </c>
-      <c r="Q26" s="100" t="str">
+      <c r="Q26" s="101" t="str">
         <f t="shared" si="6"/>
         <v>9.6箱</v>
       </c>
@@ -2769,45 +2890,45 @@
         <v>14</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E27" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="67">
         <v>44675</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="74">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82">
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="M27" s="82">
+      <c r="M27" s="83">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="N27" s="82"/>
-      <c r="O27" s="93">
+      <c r="N27" s="83"/>
+      <c r="O27" s="94">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P27" s="99">
+      <c r="P27" s="100">
         <f>SUM(I27:O27)</f>
         <v>1920</v>
       </c>
-      <c r="Q27" s="101" t="str">
+      <c r="Q27" s="102" t="str">
         <f t="shared" si="6"/>
         <v>9.6箱</v>
       </c>
@@ -2818,45 +2939,45 @@
         <v>15</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E28" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="74">
+        <v>44</v>
+      </c>
+      <c r="I28" s="75">
         <f>SUM(I23:I27)</f>
         <v>2880</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74">
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75">
         <f>SUM(L23:L27)</f>
         <v>960</v>
       </c>
-      <c r="M28" s="74">
+      <c r="M28" s="75">
         <f>SUM(M23:M27)</f>
         <v>960</v>
       </c>
-      <c r="N28" s="74"/>
-      <c r="O28" s="96">
+      <c r="N28" s="75"/>
+      <c r="O28" s="97">
         <f>SUM(O23:O27)</f>
         <v>3600</v>
       </c>
-      <c r="P28" s="98">
+      <c r="P28" s="99">
         <f>SUM(P23:P27)</f>
         <v>8400</v>
       </c>
-      <c r="Q28" s="104" t="str">
+      <c r="Q28" s="105" t="str">
         <f t="shared" si="6"/>
         <v>42箱</v>
       </c>
@@ -2874,19 +2995,19 @@
         <v>10</v>
       </c>
       <c r="E29" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="56">
-        <v>1</v>
-      </c>
-      <c r="O29" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="74">
+        <v>2</v>
+      </c>
+      <c r="O29" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="75">
         <f>P8+P18+P28</f>
         <v>24240</v>
       </c>
-      <c r="Q29" s="103" t="str">
+      <c r="Q29" s="104" t="str">
         <f t="shared" si="6"/>
         <v>121.2箱</v>
       </c>
@@ -2897,17 +3018,17 @@
         <v>17</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D30" s="33">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="E30" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2923,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75">
@@ -2942,43 +3063,43 @@
         <v>10</v>
       </c>
       <c r="E32" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="K32" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="76" t="s">
+      <c r="N32" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="P32" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="6"/>
       <c r="B33" s="16">
         <v>20</v>
@@ -2991,43 +3112,43 @@
         <v>10</v>
       </c>
       <c r="E33" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="66">
         <v>44682</v>
       </c>
-      <c r="I33" s="71">
+      <c r="I33" s="72">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86">
+      <c r="J33" s="79"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87">
         <f t="shared" ref="L33:M36" si="8">$D$13*3</f>
         <v>240</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M33" s="87">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="N33" s="78"/>
-      <c r="O33" s="91">
+      <c r="N33" s="79"/>
+      <c r="O33" s="92">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P33" s="97">
+      <c r="P33" s="98">
         <f>SUM(I33:O33)</f>
         <v>1920</v>
       </c>
-      <c r="Q33" s="100" t="str">
+      <c r="Q33" s="101" t="str">
         <f t="shared" ref="Q33:Q39" si="9">P33/200&amp;"箱"</f>
         <v>9.6箱</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" s="6"/>
       <c r="B34" s="16">
         <v>21</v>
@@ -3040,43 +3161,43 @@
         <v>10</v>
       </c>
       <c r="E34" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="66">
         <v>44689</v>
       </c>
-      <c r="I34" s="72">
+      <c r="I34" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79">
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="M34" s="79">
+      <c r="M34" s="80">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="N34" s="79"/>
-      <c r="O34" s="92">
+      <c r="N34" s="80"/>
+      <c r="O34" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P34" s="97">
+      <c r="P34" s="98">
         <f>SUM(I34:O34)</f>
         <v>1920</v>
       </c>
-      <c r="Q34" s="100" t="str">
+      <c r="Q34" s="101" t="str">
         <f t="shared" si="9"/>
         <v>9.6箱</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" s="6"/>
       <c r="B35" s="16">
         <v>22</v>
@@ -3089,43 +3210,43 @@
         <v>10</v>
       </c>
       <c r="E35" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="66">
         <v>44696</v>
       </c>
-      <c r="I35" s="72">
+      <c r="I35" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79">
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="M35" s="79">
+      <c r="M35" s="80">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="N35" s="79"/>
-      <c r="O35" s="92">
+      <c r="N35" s="80"/>
+      <c r="O35" s="93">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P35" s="97">
+      <c r="P35" s="98">
         <f>SUM(I35:O35)</f>
         <v>1920</v>
       </c>
-      <c r="Q35" s="100" t="str">
+      <c r="Q35" s="101" t="str">
         <f t="shared" si="9"/>
         <v>9.6箱</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75">
+    <row r="36" spans="1:18" ht="15.75">
       <c r="A36" s="6"/>
       <c r="B36" s="17">
         <v>23</v>
@@ -3138,43 +3259,43 @@
         <v>10</v>
       </c>
       <c r="E36" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F36" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="66">
         <v>44703</v>
       </c>
-      <c r="I36" s="72">
+      <c r="I36" s="73">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82">
+      <c r="J36" s="80"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="M36" s="82">
+      <c r="M36" s="83">
         <f t="shared" si="8"/>
         <v>240</v>
       </c>
-      <c r="N36" s="82"/>
-      <c r="O36" s="93">
+      <c r="N36" s="83"/>
+      <c r="O36" s="94">
         <f>$D$38*3</f>
         <v>720</v>
       </c>
-      <c r="P36" s="97">
+      <c r="P36" s="98">
         <f>SUM(I36:O36)</f>
         <v>1920</v>
       </c>
-      <c r="Q36" s="100" t="str">
+      <c r="Q36" s="101" t="str">
         <f t="shared" si="9"/>
         <v>9.6箱</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75">
+    <row r="37" spans="1:18" ht="15.75">
       <c r="A37" s="6"/>
       <c r="B37" s="20">
         <v>24</v>
@@ -3187,38 +3308,38 @@
         <v>10</v>
       </c>
       <c r="E37" s="50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="67">
         <v>44710</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="74">
         <f>$D$63*3</f>
         <v>720</v>
       </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="70">
+      <c r="J37" s="83"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="71">
         <f>SUM(I37:O37)</f>
         <v>720</v>
       </c>
-      <c r="Q37" s="101" t="str">
+      <c r="Q37" s="102" t="str">
         <f t="shared" si="9"/>
         <v>3.6箱</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16.5">
+    <row r="38" spans="1:18" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="19"/>
       <c r="C38" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D38" s="34">
         <f>SUM(D14:D37)</f>
@@ -3226,46 +3347,46 @@
       </c>
       <c r="E38" s="34">
         <f>SUM(E14:E37)</f>
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F38" s="59">
         <f>SUM(F14:F37)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H38" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="74">
+        <v>44</v>
+      </c>
+      <c r="I38" s="75">
         <f>SUM(I33:I37)</f>
         <v>3600</v>
       </c>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="85">
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="86">
         <f>SUM(L33:L37)</f>
         <v>960</v>
       </c>
-      <c r="M38" s="85">
+      <c r="M38" s="86">
         <f>SUM(M33:M37)</f>
         <v>960</v>
       </c>
-      <c r="N38" s="85"/>
-      <c r="O38" s="94">
+      <c r="N38" s="86"/>
+      <c r="O38" s="95">
         <f>SUM(O33:O37)</f>
         <v>2880</v>
       </c>
-      <c r="P38" s="98">
+      <c r="P38" s="99">
         <f>SUM(P33:P37)</f>
         <v>8400</v>
       </c>
-      <c r="Q38" s="104" t="str">
+      <c r="Q38" s="105" t="str">
         <f t="shared" si="9"/>
         <v>42箱</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39" s="21">
         <v>1</v>
@@ -3278,24 +3399,24 @@
         <v>10</v>
       </c>
       <c r="E39" s="52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="62">
-        <v>1</v>
-      </c>
-      <c r="O39" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" s="74">
+        <v>2</v>
+      </c>
+      <c r="O39" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="75">
         <f>P8+P18+P28+P38</f>
         <v>32640</v>
       </c>
-      <c r="Q39" s="103" t="str">
+      <c r="Q39" s="104" t="str">
         <f t="shared" si="9"/>
         <v>163.2箱</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" s="9"/>
       <c r="B40" s="21">
         <v>2</v>
@@ -3308,13 +3429,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="9"/>
       <c r="B41" s="21">
         <v>3</v>
@@ -3327,13 +3448,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="9"/>
       <c r="B42" s="22">
         <v>4</v>
@@ -3346,146 +3467,236 @@
         <v>10</v>
       </c>
       <c r="E42" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H42" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="10"/>
       <c r="B43" s="23">
         <v>5</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E43" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="69"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="10"/>
       <c r="B44" s="23">
         <v>6</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E44" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="10"/>
       <c r="B45" s="23">
         <v>7</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E45" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="10"/>
       <c r="B46" s="23">
         <v>8</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E46" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="10"/>
       <c r="B47" s="23">
         <v>9</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E47" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F47" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>2</v>
+      </c>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="10"/>
       <c r="B48" s="23">
         <v>10</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D48" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E48" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="10"/>
       <c r="B49" s="23">
         <v>11</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E49" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F49" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75">
+        <v>2</v>
+      </c>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+    </row>
+    <row r="50" spans="1:18" ht="15.75">
       <c r="A50" s="10"/>
       <c r="B50" s="24">
         <v>12</v>
@@ -3498,89 +3709,144 @@
         <v>10</v>
       </c>
       <c r="E50" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="69"/>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="10"/>
       <c r="B51" s="25">
         <v>13</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="40">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E51" s="51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="10"/>
       <c r="B52" s="23">
         <v>14</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E52" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="10"/>
       <c r="B53" s="23">
         <v>15</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E53" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="69"/>
+      <c r="P53" s="69"/>
+      <c r="Q53" s="69"/>
+      <c r="R53" s="69"/>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="10"/>
       <c r="B54" s="23">
         <v>16</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E54" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="69"/>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="10"/>
       <c r="B55" s="23">
         <v>17</v>
@@ -3593,13 +3859,24 @@
         <v>10</v>
       </c>
       <c r="E55" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="69"/>
+      <c r="Q55" s="69"/>
+      <c r="R55" s="69"/>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="10"/>
       <c r="B56" s="23">
         <v>18</v>
@@ -3612,51 +3889,84 @@
         <v>10</v>
       </c>
       <c r="E56" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="69"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="10"/>
       <c r="B57" s="23">
         <v>19</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E57" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69"/>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="10"/>
       <c r="B58" s="23">
         <v>20</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="33">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E58" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69"/>
+      <c r="R58" s="69"/>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="11"/>
       <c r="B59" s="26">
         <v>21</v>
@@ -3669,13 +3979,24 @@
         <v>10</v>
       </c>
       <c r="E59" s="48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="11"/>
       <c r="B60" s="27">
         <v>22</v>
@@ -3688,13 +4009,24 @@
         <v>10</v>
       </c>
       <c r="E60" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F60" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="11"/>
       <c r="B61" s="27">
         <v>23</v>
@@ -3707,13 +4039,24 @@
         <v>10</v>
       </c>
       <c r="E61" s="50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F61" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75">
+        <v>2</v>
+      </c>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75">
       <c r="A62" s="11"/>
       <c r="B62" s="28">
         <v>24</v>
@@ -3726,17 +4069,28 @@
         <v>10</v>
       </c>
       <c r="E62" s="50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.5">
+        <v>2</v>
+      </c>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="69"/>
+      <c r="P62" s="69"/>
+      <c r="Q62" s="69"/>
+      <c r="R62" s="69"/>
+    </row>
+    <row r="63" spans="1:18" ht="16.5">
       <c r="A63" s="12"/>
       <c r="B63" s="29"/>
       <c r="C63" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D63" s="34">
         <f>SUM(D39:D62)</f>
@@ -3744,23 +4098,35 @@
       </c>
       <c r="E63" s="34">
         <f>SUM(E39:E62)</f>
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F63" s="59">
         <f>SUM(F39:F62)</f>
-        <v>24</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="69"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="69"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="69"/>
+      <c r="R63" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A14:A38"/>
     <mergeCell ref="A39:A63"/>
+    <mergeCell ref="H42:R63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3772,13 +4138,1076 @@
   <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="R1" s="106"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="112">
+        <v>1</v>
+      </c>
+      <c r="C3" s="116">
+        <v>0.58333333333333293</v>
+      </c>
+      <c r="D3" s="119">
+        <f>SUM(E3:F3)</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="122">
+        <v>17</v>
+      </c>
+      <c r="F3" s="124">
+        <v>3</v>
+      </c>
+      <c r="H3" s="65">
+        <v>44591</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79">
+        <v>75</v>
+      </c>
+      <c r="O3" s="92"/>
+      <c r="P3" s="98">
+        <f>SUM(I3:O3)</f>
+        <v>75</v>
+      </c>
+      <c r="Q3" s="101" t="str">
+        <f t="shared" ref="Q3:Q8" si="0">P3/150&amp;"箱"</f>
+        <v>0.5箱</v>
+      </c>
+      <c r="R3" s="107">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
+      <c r="A4" s="6"/>
+      <c r="B4" s="113">
+        <v>2</v>
+      </c>
+      <c r="C4" s="117">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D4" s="120">
+        <f>SUM(E4:F4)</f>
+        <v>20</v>
+      </c>
+      <c r="E4" s="123">
+        <v>17</v>
+      </c>
+      <c r="F4" s="125">
+        <v>3</v>
+      </c>
+      <c r="H4" s="66">
+        <v>44598</v>
+      </c>
+      <c r="I4" s="72"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="80">
+        <v>75</v>
+      </c>
+      <c r="L4" s="80">
+        <v>75</v>
+      </c>
+      <c r="M4" s="80"/>
+      <c r="N4" s="82">
+        <v>0</v>
+      </c>
+      <c r="O4" s="93"/>
+      <c r="P4" s="98">
+        <f>SUM(I4:O4)</f>
+        <v>150</v>
+      </c>
+      <c r="Q4" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>1箱</v>
+      </c>
+      <c r="R4" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="113">
+        <v>3</v>
+      </c>
+      <c r="C5" s="117">
+        <v>0.625</v>
+      </c>
+      <c r="D5" s="120">
+        <f>SUM(E5:F5)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="123">
+        <v>17</v>
+      </c>
+      <c r="F5" s="125">
+        <v>3</v>
+      </c>
+      <c r="H5" s="66">
+        <v>44605</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80">
+        <v>75</v>
+      </c>
+      <c r="L5" s="80">
+        <v>75</v>
+      </c>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80">
+        <v>75</v>
+      </c>
+      <c r="O5" s="93"/>
+      <c r="P5" s="98">
+        <f>SUM(I5:O5)</f>
+        <v>225</v>
+      </c>
+      <c r="Q5" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5箱</v>
+      </c>
+      <c r="R5" s="107">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="113">
+        <v>4</v>
+      </c>
+      <c r="C6" s="117">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="D6" s="120">
+        <f>SUM(E6:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="E6" s="123">
+        <v>17</v>
+      </c>
+      <c r="F6" s="125">
+        <v>3</v>
+      </c>
+      <c r="H6" s="66">
+        <v>44612</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="83">
+        <v>75</v>
+      </c>
+      <c r="L6" s="89">
+        <v>0</v>
+      </c>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83">
+        <v>75</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="98">
+        <f>SUM(I6:O6)</f>
+        <v>150</v>
+      </c>
+      <c r="Q6" s="101" t="str">
+        <f t="shared" si="0"/>
+        <v>1箱</v>
+      </c>
+      <c r="R6" s="107"/>
+    </row>
+    <row r="7" spans="1:18" ht="17.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="121">
+        <f>SUM(D3:D6)</f>
+        <v>80</v>
+      </c>
+      <c r="E7" s="121">
+        <f>SUM(E3:E6)</f>
+        <v>68</v>
+      </c>
+      <c r="F7" s="126">
+        <f>SUM(F3:F6)</f>
+        <v>12</v>
+      </c>
+      <c r="H7" s="67">
+        <v>44619</v>
+      </c>
+      <c r="I7" s="74"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="71">
+        <f>SUM(I7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="102" t="str">
+        <f t="shared" si="0"/>
+        <v>0箱</v>
+      </c>
+      <c r="R7" s="108"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="H8" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="86">
+        <f>SUM(K3:K7)</f>
+        <v>225</v>
+      </c>
+      <c r="L8" s="86">
+        <f>SUM(L3:L7)</f>
+        <v>150</v>
+      </c>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86">
+        <f>SUM(N3:N7)</f>
+        <v>225</v>
+      </c>
+      <c r="O8" s="95"/>
+      <c r="P8" s="99">
+        <f>SUM(P3:P7)</f>
+        <v>600</v>
+      </c>
+      <c r="Q8" s="103" t="str">
+        <f t="shared" si="0"/>
+        <v>4箱</v>
+      </c>
+      <c r="R8" s="109">
+        <f>SUM(R3:R7)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="H9" s="2"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="75">
+        <f>P8</f>
+        <v>600</v>
+      </c>
+      <c r="Q9" s="104">
+        <v>4</v>
+      </c>
+      <c r="R9" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="H10" s="2"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="H11" s="2"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="H12" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
+      <c r="H13" s="65">
+        <v>44619</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="84">
+        <f t="shared" ref="K13:L17" si="1">$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="L13" s="79">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="98">
+        <f>SUM(I13:O13)</f>
+        <v>240</v>
+      </c>
+      <c r="Q13" s="101" t="str">
+        <f>P13/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+      <c r="R13" s="107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="H14" s="66">
+        <v>44626</v>
+      </c>
+      <c r="I14" s="72"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L14" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O14" s="93"/>
+      <c r="P14" s="98">
+        <f>SUM(I14:O14)</f>
+        <v>240</v>
+      </c>
+      <c r="Q14" s="101" t="str">
+        <f>P14/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+      <c r="R14" s="107"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="H15" s="66">
+        <v>44633</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L15" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O15" s="93"/>
+      <c r="P15" s="98">
+        <f>SUM(I15:O15)</f>
+        <v>240</v>
+      </c>
+      <c r="Q15" s="101" t="str">
+        <f>P15/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+      <c r="R15" s="107"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
+      <c r="H16" s="66">
+        <v>44640</v>
+      </c>
+      <c r="I16" s="73"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L16" s="80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M16" s="80"/>
+      <c r="N16" s="83">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O16" s="94"/>
+      <c r="P16" s="98">
+        <f>SUM(I16:O16)</f>
+        <v>240</v>
+      </c>
+      <c r="Q16" s="101" t="str">
+        <f>P16/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+      <c r="R16" s="107"/>
+    </row>
+    <row r="17" spans="8:18" ht="15.75">
+      <c r="H17" s="67">
+        <v>44647</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L17" s="83">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="M17" s="81"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="71">
+        <f>SUM(I17:O17)</f>
+        <v>160</v>
+      </c>
+      <c r="Q17" s="102" t="str">
+        <f>P17/200&amp;"箱"</f>
+        <v>0.8箱</v>
+      </c>
+      <c r="R17" s="107"/>
+    </row>
+    <row r="18" spans="8:18" ht="15.75">
+      <c r="H18" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75">
+        <f>SUM(K13:K17)</f>
+        <v>400</v>
+      </c>
+      <c r="L18" s="75">
+        <f>SUM(L13:L17)</f>
+        <v>400</v>
+      </c>
+      <c r="M18" s="75"/>
+      <c r="N18" s="86">
+        <f>SUM(N13:N17)</f>
+        <v>320</v>
+      </c>
+      <c r="O18" s="95"/>
+      <c r="P18" s="99">
+        <f>SUM(P13:P17)</f>
+        <v>1120</v>
+      </c>
+      <c r="Q18" s="105">
+        <f>P18/200</f>
+        <v>5.6</v>
+      </c>
+      <c r="R18" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="8:18">
+      <c r="H19" s="2"/>
+      <c r="O19" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="75">
+        <f>P8+P18</f>
+        <v>1720</v>
+      </c>
+      <c r="Q19" s="104">
+        <f>Q9+Q18</f>
+        <v>9.6</v>
+      </c>
+      <c r="R19" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:18">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:18" ht="15.75">
+      <c r="H22" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18" ht="15.75">
+      <c r="H23" s="65">
+        <v>44647</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="84">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O23" s="92"/>
+      <c r="P23" s="98">
+        <f>SUM(I23:O23)</f>
+        <v>80</v>
+      </c>
+      <c r="Q23" s="101" t="str">
+        <f>P23/200&amp;"箱"</f>
+        <v>0.4箱</v>
+      </c>
+    </row>
+    <row r="24" spans="8:18">
+      <c r="H24" s="66">
+        <v>44654</v>
+      </c>
+      <c r="I24" s="72"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79">
+        <f t="shared" ref="K24:L27" si="2">$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="L24" s="79">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M24" s="79"/>
+      <c r="N24" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O24" s="93"/>
+      <c r="P24" s="98">
+        <f>SUM(I24:O24)</f>
+        <v>240</v>
+      </c>
+      <c r="Q24" s="101" t="str">
+        <f>P24/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="25" spans="8:18">
+      <c r="H25" s="66">
+        <v>44661</v>
+      </c>
+      <c r="I25" s="73"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L25" s="80">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O25" s="93"/>
+      <c r="P25" s="98">
+        <f>SUM(I25:O25)</f>
+        <v>240</v>
+      </c>
+      <c r="Q25" s="101" t="str">
+        <f>P25/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="26" spans="8:18">
+      <c r="H26" s="66">
+        <v>44668</v>
+      </c>
+      <c r="I26" s="73"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="80">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L26" s="80">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O26" s="93"/>
+      <c r="P26" s="98">
+        <f>SUM(I26:O26)</f>
+        <v>240</v>
+      </c>
+      <c r="Q26" s="101" t="str">
+        <f>P26/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="27" spans="8:18" ht="15.75">
+      <c r="H27" s="67">
+        <v>44675</v>
+      </c>
+      <c r="I27" s="74"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L27" s="83">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O27" s="94"/>
+      <c r="P27" s="100">
+        <f>SUM(I27:O27)</f>
+        <v>240</v>
+      </c>
+      <c r="Q27" s="102" t="str">
+        <f>P27/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="28" spans="8:18" ht="15.75">
+      <c r="H28" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75">
+        <f>SUM(L23:L27)</f>
+        <v>320</v>
+      </c>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="99">
+        <f>SUM(P23:P27)</f>
+        <v>1040</v>
+      </c>
+      <c r="Q28" s="105">
+        <f>P28/200</f>
+        <v>5.2</v>
+      </c>
+      <c r="R28" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="8:18">
+      <c r="H29" s="2"/>
+      <c r="O29" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="75">
+        <f>P8+P18+P28</f>
+        <v>2760</v>
+      </c>
+      <c r="Q29" s="104">
+        <f>Q19+Q28</f>
+        <v>14.8</v>
+      </c>
+      <c r="R29" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="8:18">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:18">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="8:18" ht="15.75">
+      <c r="H32" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18">
+      <c r="H33" s="66">
+        <v>44682</v>
+      </c>
+      <c r="I33" s="72"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="87">
+        <v>0</v>
+      </c>
+      <c r="L33" s="87">
+        <v>0</v>
+      </c>
+      <c r="M33" s="87"/>
+      <c r="N33" s="79">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O33" s="92"/>
+      <c r="P33" s="98">
+        <f>SUM(I33:O33)</f>
+        <v>80</v>
+      </c>
+      <c r="Q33" s="101" t="str">
+        <f>P33/200&amp;"箱"</f>
+        <v>0.4箱</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18">
+      <c r="H34" s="66">
+        <v>44689</v>
+      </c>
+      <c r="I34" s="73"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80">
+        <f t="shared" ref="K34:L36" si="3">$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="L34" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O34" s="93"/>
+      <c r="P34" s="98">
+        <f>SUM(I34:O34)</f>
+        <v>240</v>
+      </c>
+      <c r="Q34" s="101" t="str">
+        <f>P34/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18">
+      <c r="H35" s="66">
+        <v>44696</v>
+      </c>
+      <c r="I35" s="73"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="L35" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O35" s="93"/>
+      <c r="P35" s="98">
+        <f>SUM(I35:O35)</f>
+        <v>240</v>
+      </c>
+      <c r="Q35" s="101" t="str">
+        <f>P35/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="36" spans="8:18" ht="15.75">
+      <c r="H36" s="66">
+        <v>44703</v>
+      </c>
+      <c r="I36" s="73"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="83">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="L36" s="83">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M36" s="83"/>
+      <c r="N36" s="83">
+        <f>$D$7</f>
+        <v>80</v>
+      </c>
+      <c r="O36" s="94"/>
+      <c r="P36" s="98">
+        <f>SUM(I36:O36)</f>
+        <v>240</v>
+      </c>
+      <c r="Q36" s="101" t="str">
+        <f>P36/200&amp;"箱"</f>
+        <v>1.2箱</v>
+      </c>
+    </row>
+    <row r="37" spans="8:18" ht="15.75">
+      <c r="H37" s="67">
+        <v>44710</v>
+      </c>
+      <c r="I37" s="74"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="71">
+        <f>SUM(I37:O37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="102" t="str">
+        <f>P37/200&amp;"箱"</f>
+        <v>0箱</v>
+      </c>
+    </row>
+    <row r="38" spans="8:18" ht="15.75">
+      <c r="H38" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="86">
+        <f>SUM(L33:L37)</f>
+        <v>240</v>
+      </c>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="99">
+        <f>SUM(P33:P37)</f>
+        <v>800</v>
+      </c>
+      <c r="Q38" s="105">
+        <f>P38/200</f>
+        <v>4</v>
+      </c>
+      <c r="R38" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="8:18">
+      <c r="H39" s="2"/>
+      <c r="O39" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="75">
+        <f>P8+P18+P28+P38</f>
+        <v>3560</v>
+      </c>
+      <c r="Q39" s="104">
+        <f>Q29+Q38</f>
+        <v>18.8</v>
+      </c>
+      <c r="R39" s="128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="Hiragana"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1:R46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="110" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -3796,1024 +5225,1085 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
-      <c r="R1" s="105"/>
+      <c r="R1" s="106"/>
     </row>
     <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>13</v>
+      <c r="C2" s="115" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.5">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="111">
+      <c r="B3" s="112">
         <v>1</v>
       </c>
-      <c r="C3" s="115">
+      <c r="C3" s="116">
         <v>0.58333333333333293</v>
       </c>
-      <c r="D3" s="118">
-        <f>SUM(E3:F3)</f>
-        <v>20</v>
-      </c>
-      <c r="E3" s="121">
-        <v>17</v>
-      </c>
-      <c r="F3" s="123">
-        <v>3</v>
-      </c>
-      <c r="H3" s="65">
-        <v>44591</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O3" s="91"/>
-      <c r="P3" s="97">
-        <f>SUM(I3:O3)</f>
-        <v>75</v>
-      </c>
-      <c r="Q3" s="100" t="str">
-        <f t="shared" ref="Q3:Q9" si="0">P3/150&amp;"箱"</f>
-        <v>0.5箱</v>
-      </c>
-      <c r="R3" s="106">
-        <v>51</v>
+      <c r="D3" s="119">
+        <v>10</v>
+      </c>
+      <c r="E3" s="122">
+        <v>8</v>
+      </c>
+      <c r="F3" s="124">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="112">
-        <v>2</v>
-      </c>
-      <c r="C4" s="116">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="D4" s="119">
-        <f>SUM(E4:F4)</f>
-        <v>20</v>
-      </c>
-      <c r="E4" s="122">
-        <v>17</v>
-      </c>
-      <c r="F4" s="124">
-        <v>3</v>
-      </c>
-      <c r="H4" s="66">
-        <v>44598</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L4" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="M4" s="79"/>
-      <c r="N4" s="81">
-        <v>0</v>
-      </c>
-      <c r="O4" s="92"/>
-      <c r="P4" s="97">
-        <f>SUM(I4:O4)</f>
-        <v>150</v>
-      </c>
-      <c r="Q4" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>1箱</v>
-      </c>
-      <c r="R4" s="106">
-        <v>0</v>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="D4" s="131">
+        <v>10</v>
+      </c>
+      <c r="E4" s="132">
+        <v>8</v>
+      </c>
+      <c r="F4" s="133">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="6"/>
-      <c r="B5" s="112">
+      <c r="B5" s="129"/>
+      <c r="C5" s="130">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="D5" s="131">
+        <v>10</v>
+      </c>
+      <c r="E5" s="132">
+        <v>8</v>
+      </c>
+      <c r="F5" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
+      <c r="A6" s="6"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D6" s="131">
+        <v>10</v>
+      </c>
+      <c r="E6" s="132">
+        <v>8</v>
+      </c>
+      <c r="F6" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
+      <c r="A7" s="6"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
+      <c r="A8" s="6"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130">
+        <v>0.61805555555555602</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
+      <c r="A9" s="6"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
+      <c r="A10" s="6"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="D10" s="131">
+        <v>10</v>
+      </c>
+      <c r="E10" s="132">
+        <v>8</v>
+      </c>
+      <c r="F10" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
+      <c r="A11" s="6"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D11" s="131">
+        <v>10</v>
+      </c>
+      <c r="E11" s="132">
+        <v>8</v>
+      </c>
+      <c r="F11" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
+      <c r="A12" s="6"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="D12" s="131">
+        <v>10</v>
+      </c>
+      <c r="E12" s="132">
+        <v>8</v>
+      </c>
+      <c r="F12" s="133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="113">
+        <v>4</v>
+      </c>
+      <c r="C13" s="117">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="D13" s="120">
+        <v>10</v>
+      </c>
+      <c r="E13" s="123">
+        <v>8</v>
+      </c>
+      <c r="F13" s="125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="116">
+      <c r="D14" s="121">
+        <f>SUM(D3:D13)</f>
+        <v>80</v>
+      </c>
+      <c r="E14" s="121">
+        <f>SUM(E3:E13)</f>
+        <v>64</v>
+      </c>
+      <c r="F14" s="126">
+        <f>SUM(F3:F13)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="H17" s="2"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="H18" s="2"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75">
+      <c r="H19" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="65">
+        <v>44619</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="84">
+        <f t="shared" ref="K20:L24" si="0">$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="L20" s="79">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O20" s="92"/>
+      <c r="P20" s="98">
+        <f>SUM(I20:O20)</f>
+        <v>240</v>
+      </c>
+      <c r="Q20" s="101" t="str">
+        <f t="shared" ref="Q20:Q26" si="1">P20/150&amp;"箱"</f>
+        <v>1.6箱</v>
+      </c>
+      <c r="R20" s="107">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="112">
+        <v>1</v>
+      </c>
+      <c r="C21" s="116">
+        <v>0.58333333333333293</v>
+      </c>
+      <c r="D21" s="119">
+        <v>8</v>
+      </c>
+      <c r="E21" s="122">
+        <v>6</v>
+      </c>
+      <c r="F21" s="124">
+        <v>2</v>
+      </c>
+      <c r="H21" s="66">
+        <v>44626</v>
+      </c>
+      <c r="I21" s="72"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L21" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O21" s="93"/>
+      <c r="P21" s="98">
+        <f>SUM(I21:O21)</f>
+        <v>240</v>
+      </c>
+      <c r="Q21" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>1.6箱</v>
+      </c>
+      <c r="R21" s="107"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75">
+      <c r="A22" s="6"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="D22" s="131">
+        <v>8</v>
+      </c>
+      <c r="E22" s="132">
+        <v>6</v>
+      </c>
+      <c r="F22" s="133">
+        <v>2</v>
+      </c>
+      <c r="H22" s="66">
+        <v>44633</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L22" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O22" s="93"/>
+      <c r="P22" s="98">
+        <f>SUM(I22:O22)</f>
+        <v>240</v>
+      </c>
+      <c r="Q22" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>1.6箱</v>
+      </c>
+      <c r="R22" s="107"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="D23" s="131">
+        <v>8</v>
+      </c>
+      <c r="E23" s="132">
+        <v>6</v>
+      </c>
+      <c r="F23" s="133">
+        <v>2</v>
+      </c>
+      <c r="H23" s="66">
+        <v>44640</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L23" s="80">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M23" s="80"/>
+      <c r="N23" s="83">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O23" s="94"/>
+      <c r="P23" s="98">
+        <f>SUM(I23:O23)</f>
+        <v>240</v>
+      </c>
+      <c r="Q23" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>1.6箱</v>
+      </c>
+      <c r="R23" s="107"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5">
+      <c r="A24" s="6"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D24" s="131">
+        <v>8</v>
+      </c>
+      <c r="E24" s="132">
+        <v>6</v>
+      </c>
+      <c r="F24" s="133">
+        <v>2</v>
+      </c>
+      <c r="H24" s="67">
+        <v>44647</v>
+      </c>
+      <c r="I24" s="74"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L24" s="83">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M24" s="81"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="71">
+        <f>SUM(I24:O24)</f>
+        <v>160</v>
+      </c>
+      <c r="Q24" s="102" t="str">
+        <f t="shared" si="1"/>
+        <v>1.06666666666667箱</v>
+      </c>
+      <c r="R24" s="107"/>
+    </row>
+    <row r="25" spans="1:18" ht="16.5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="D25" s="131">
+        <v>8</v>
+      </c>
+      <c r="E25" s="132">
+        <v>6</v>
+      </c>
+      <c r="F25" s="133">
+        <v>2</v>
+      </c>
+      <c r="H25" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75">
+        <f>SUM(K20:K24)</f>
+        <v>400</v>
+      </c>
+      <c r="L25" s="75">
+        <f>SUM(L20:L24)</f>
+        <v>400</v>
+      </c>
+      <c r="M25" s="75"/>
+      <c r="N25" s="86">
+        <f>SUM(N20:N24)</f>
+        <v>320</v>
+      </c>
+      <c r="O25" s="95"/>
+      <c r="P25" s="99">
+        <f>SUM(P20:P24)</f>
+        <v>1120</v>
+      </c>
+      <c r="Q25" s="105" t="str">
+        <f t="shared" si="1"/>
+        <v>7.46666666666667箱</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15.75">
+      <c r="A26" s="6"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130">
+        <v>0.61805555555555602</v>
+      </c>
+      <c r="D26" s="131">
+        <v>8</v>
+      </c>
+      <c r="E26" s="132">
+        <v>6</v>
+      </c>
+      <c r="F26" s="133">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="O26" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="75">
+        <f>P15+P25</f>
+        <v>1120</v>
+      </c>
+      <c r="Q26" s="104" t="str">
+        <f t="shared" si="1"/>
+        <v>7.46666666666667箱</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75">
+      <c r="A27" s="6"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130">
         <v>0.625</v>
       </c>
-      <c r="D5" s="119">
-        <f>SUM(E5:F5)</f>
-        <v>18</v>
-      </c>
-      <c r="E5" s="122">
-        <v>17</v>
-      </c>
-      <c r="F5" s="124">
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75">
+      <c r="A28" s="6"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="D28" s="131">
+        <v>8</v>
+      </c>
+      <c r="E28" s="132">
+        <v>6</v>
+      </c>
+      <c r="F28" s="133">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5">
+      <c r="A29" s="6"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D29" s="131">
+        <v>8</v>
+      </c>
+      <c r="E29" s="132">
+        <v>6</v>
+      </c>
+      <c r="F29" s="133">
         <v>1</v>
       </c>
-      <c r="H5" s="66">
-        <v>44605</v>
-      </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L5" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O5" s="92"/>
-      <c r="P5" s="97">
-        <f>SUM(I5:O5)</f>
-        <v>225</v>
-      </c>
-      <c r="Q5" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5箱</v>
-      </c>
-      <c r="R5" s="106">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="112">
+      <c r="H29" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="16.5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130">
+        <v>0.64583333333333293</v>
+      </c>
+      <c r="D30" s="131">
+        <v>8</v>
+      </c>
+      <c r="E30" s="132">
+        <v>6</v>
+      </c>
+      <c r="F30" s="133">
+        <v>0</v>
+      </c>
+      <c r="H30" s="65">
+        <v>44647</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="84">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O30" s="92"/>
+      <c r="P30" s="98">
+        <f>SUM(I30:O30)</f>
+        <v>80</v>
+      </c>
+      <c r="Q30" s="101" t="str">
+        <f t="shared" ref="Q30:Q36" si="2">P30/150&amp;"箱"</f>
+        <v>0.533333333333333箱</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="16.5">
+      <c r="A31" s="6"/>
+      <c r="B31" s="113">
         <v>4</v>
       </c>
-      <c r="C6" s="116">
-        <v>0.64583333333333293</v>
-      </c>
-      <c r="D6" s="119">
-        <f>SUM(E6:F6)</f>
-        <v>17</v>
-      </c>
-      <c r="E6" s="122">
-        <v>17</v>
-      </c>
-      <c r="F6" s="124">
+      <c r="C31" s="117">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="D31" s="120">
+        <v>8</v>
+      </c>
+      <c r="E31" s="123">
+        <v>6</v>
+      </c>
+      <c r="F31" s="125">
         <v>0</v>
       </c>
-      <c r="H6" s="66">
-        <v>44612</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="82">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L6" s="88">
-        <v>0</v>
-      </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O6" s="93"/>
-      <c r="P6" s="97">
-        <f>SUM(I6:O6)</f>
-        <v>150</v>
-      </c>
-      <c r="Q6" s="100" t="str">
-        <f t="shared" si="0"/>
-        <v>1箱</v>
-      </c>
-      <c r="R6" s="106"/>
-    </row>
-    <row r="7" spans="1:18" ht="17.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="120">
-        <f>SUM(D3:D6)</f>
-        <v>75</v>
-      </c>
-      <c r="E7" s="120">
-        <f>SUM(E3:E6)</f>
-        <v>68</v>
-      </c>
-      <c r="F7" s="125">
-        <f>SUM(F3:F6)</f>
-        <v>7</v>
-      </c>
-      <c r="H7" s="67">
-        <v>44619</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="70">
-        <f>SUM(I7:O7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="101" t="str">
-        <f t="shared" si="0"/>
-        <v>0箱</v>
-      </c>
-      <c r="R7" s="107"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
-      <c r="H8" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="85">
-        <f>SUM(K3:K7)</f>
-        <v>225</v>
-      </c>
-      <c r="L8" s="85">
-        <f>SUM(L3:L7)</f>
-        <v>150</v>
-      </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85">
-        <f>SUM(N3:N7)</f>
-        <v>225</v>
-      </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="98">
-        <f>SUM(P3:P7)</f>
-        <v>600</v>
-      </c>
-      <c r="Q8" s="102" t="str">
-        <f t="shared" si="0"/>
-        <v>4箱</v>
-      </c>
-      <c r="R8" s="108">
-        <f>SUM(R3:R7)</f>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="H9" s="2"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="74">
-        <f>P8</f>
-        <v>600</v>
-      </c>
-      <c r="Q9" s="103" t="str">
-        <f t="shared" si="0"/>
-        <v>4箱</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="H10" s="2"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="H11" s="2"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
-      <c r="H12" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="76" t="s">
+      <c r="H31" s="66">
+        <v>44654</v>
+      </c>
+      <c r="I31" s="72"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79">
+        <f t="shared" ref="K31:L34" si="3">$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="L31" s="79">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M31" s="79"/>
+      <c r="N31" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O31" s="93"/>
+      <c r="P31" s="98">
+        <f>SUM(I31:O31)</f>
+        <v>240</v>
+      </c>
+      <c r="Q31" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="76" t="s">
+      <c r="D32" s="121">
+        <f>SUM(D21:D31)</f>
+        <v>80</v>
+      </c>
+      <c r="E32" s="121">
+        <f>SUM(E21:E31)</f>
+        <v>60</v>
+      </c>
+      <c r="F32" s="126">
+        <f>SUM(F21:F31)</f>
         <v>15</v>
       </c>
-      <c r="P12" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
-      <c r="H13" s="65">
-        <v>44619</v>
-      </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="83">
-        <f t="shared" ref="K13:L17" si="1">$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L13" s="78">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O13" s="91"/>
-      <c r="P13" s="97">
-        <f>SUM(I13:O13)</f>
-        <v>225</v>
-      </c>
-      <c r="Q13" s="100" t="str">
-        <f t="shared" ref="Q13:Q19" si="2">P13/150&amp;"箱"</f>
-        <v>1.5箱</v>
-      </c>
-      <c r="R13" s="106">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="H14" s="66">
-        <v>44626</v>
-      </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L14" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O14" s="92"/>
-      <c r="P14" s="97">
-        <f>SUM(I14:O14)</f>
-        <v>225</v>
-      </c>
-      <c r="Q14" s="100" t="str">
+      <c r="H32" s="66">
+        <v>44661</v>
+      </c>
+      <c r="I32" s="73"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="L32" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O32" s="93"/>
+      <c r="P32" s="98">
+        <f>SUM(I32:O32)</f>
+        <v>240</v>
+      </c>
+      <c r="Q32" s="101" t="str">
         <f t="shared" si="2"/>
-        <v>1.5箱</v>
-      </c>
-      <c r="R14" s="106"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="H15" s="66">
-        <v>44633</v>
-      </c>
-      <c r="I15" s="72"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L15" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O15" s="92"/>
-      <c r="P15" s="97">
-        <f>SUM(I15:O15)</f>
-        <v>225</v>
-      </c>
-      <c r="Q15" s="100" t="str">
-        <f t="shared" si="2"/>
-        <v>1.5箱</v>
-      </c>
-      <c r="R15" s="106"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75">
-      <c r="H16" s="66">
-        <v>44640</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L16" s="79">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M16" s="79"/>
-      <c r="N16" s="82">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O16" s="93"/>
-      <c r="P16" s="97">
-        <f>SUM(I16:O16)</f>
-        <v>225</v>
-      </c>
-      <c r="Q16" s="100" t="str">
-        <f t="shared" si="2"/>
-        <v>1.5箱</v>
-      </c>
-      <c r="R16" s="106"/>
-    </row>
-    <row r="17" spans="8:18" ht="15.75">
-      <c r="H17" s="67">
-        <v>44647</v>
-      </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="L17" s="82">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="70">
-        <f>SUM(I17:O17)</f>
-        <v>150</v>
-      </c>
-      <c r="Q17" s="101" t="str">
-        <f t="shared" si="2"/>
-        <v>1箱</v>
-      </c>
-      <c r="R17" s="106"/>
-    </row>
-    <row r="18" spans="8:18" ht="15.75">
-      <c r="H18" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74">
-        <f>SUM(K13:K17)</f>
-        <v>375</v>
-      </c>
-      <c r="L18" s="74">
-        <f>SUM(L13:L17)</f>
-        <v>375</v>
-      </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="85">
-        <f>SUM(N13:N17)</f>
-        <v>300</v>
-      </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="98">
-        <f>SUM(P13:P17)</f>
-        <v>1050</v>
-      </c>
-      <c r="Q18" s="104" t="str">
-        <f t="shared" si="2"/>
-        <v>7箱</v>
-      </c>
-    </row>
-    <row r="19" spans="8:18">
-      <c r="H19" s="2"/>
-      <c r="O19" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="74">
-        <f>P8+P18</f>
-        <v>1650</v>
-      </c>
-      <c r="Q19" s="103" t="str">
-        <f t="shared" si="2"/>
-        <v>11箱</v>
-      </c>
-    </row>
-    <row r="20" spans="8:18">
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="8:18">
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="8:18" ht="15.75">
-      <c r="H22" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="P22" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="8:18" ht="15.75">
-      <c r="H23" s="65">
-        <v>44647</v>
-      </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="83">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O23" s="91"/>
-      <c r="P23" s="97">
-        <f>SUM(I23:O23)</f>
-        <v>75</v>
-      </c>
-      <c r="Q23" s="100" t="str">
-        <f t="shared" ref="Q23:Q29" si="3">P23/150&amp;"箱"</f>
-        <v>0.5箱</v>
-      </c>
-    </row>
-    <row r="24" spans="8:18">
-      <c r="H24" s="66">
-        <v>44654</v>
-      </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78">
-        <f t="shared" ref="K24:L27" si="4">$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L24" s="78">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M24" s="78"/>
-      <c r="N24" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O24" s="92"/>
-      <c r="P24" s="97">
-        <f>SUM(I24:O24)</f>
-        <v>225</v>
-      </c>
-      <c r="Q24" s="100" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="25" spans="8:18">
-      <c r="H25" s="66">
-        <v>44661</v>
-      </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="L25" s="79">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O25" s="92"/>
-      <c r="P25" s="97">
-        <f>SUM(I25:O25)</f>
-        <v>225</v>
-      </c>
-      <c r="Q25" s="100" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="26" spans="8:18">
-      <c r="H26" s="66">
-        <v>44668</v>
-      </c>
-      <c r="I26" s="72"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="79">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="L26" s="79">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O26" s="92"/>
-      <c r="P26" s="97">
-        <f>SUM(I26:O26)</f>
-        <v>225</v>
-      </c>
-      <c r="Q26" s="100" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="27" spans="8:18" ht="15.75">
-      <c r="H27" s="67">
-        <v>44675</v>
-      </c>
-      <c r="I27" s="73"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="L27" s="82">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O27" s="93"/>
-      <c r="P27" s="99">
-        <f>SUM(I27:O27)</f>
-        <v>225</v>
-      </c>
-      <c r="Q27" s="101" t="str">
-        <f t="shared" si="3"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="28" spans="8:18" ht="15.75">
-      <c r="H28" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74">
-        <f>SUM(L23:L27)</f>
-        <v>300</v>
-      </c>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="98">
-        <f>SUM(P23:P27)</f>
-        <v>975</v>
-      </c>
-      <c r="Q28" s="104" t="str">
-        <f t="shared" si="3"/>
-        <v>6.5箱</v>
-      </c>
-    </row>
-    <row r="29" spans="8:18">
-      <c r="H29" s="2"/>
-      <c r="O29" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" s="74">
-        <f>P8+P18+P28</f>
-        <v>2625</v>
-      </c>
-      <c r="Q29" s="103" t="str">
-        <f t="shared" si="3"/>
-        <v>17.5箱</v>
-      </c>
-    </row>
-    <row r="30" spans="8:18">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="8:18">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="8:18" ht="15.75">
-      <c r="H32" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="N32" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="69" t="s">
-        <v>8</v>
+        <v>1.6箱</v>
       </c>
     </row>
     <row r="33" spans="8:17">
       <c r="H33" s="66">
+        <v>44668</v>
+      </c>
+      <c r="I33" s="73"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="L33" s="80">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O33" s="93"/>
+      <c r="P33" s="98">
+        <f>SUM(I33:O33)</f>
+        <v>240</v>
+      </c>
+      <c r="Q33" s="101" t="str">
+        <f t="shared" si="2"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" ht="15.75">
+      <c r="H34" s="67">
+        <v>44675</v>
+      </c>
+      <c r="I34" s="74"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="L34" s="83">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O34" s="94"/>
+      <c r="P34" s="100">
+        <f>SUM(I34:O34)</f>
+        <v>240</v>
+      </c>
+      <c r="Q34" s="102" t="str">
+        <f t="shared" si="2"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17" ht="15.75">
+      <c r="H35" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75">
+        <f>SUM(L30:L34)</f>
+        <v>320</v>
+      </c>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="99">
+        <f>SUM(P30:P34)</f>
+        <v>1040</v>
+      </c>
+      <c r="Q35" s="105" t="str">
+        <f t="shared" si="2"/>
+        <v>6.93333333333333箱</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17">
+      <c r="H36" s="2"/>
+      <c r="O36" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="75">
+        <f>P15+P25+P35</f>
+        <v>2160</v>
+      </c>
+      <c r="Q36" s="104" t="str">
+        <f t="shared" si="2"/>
+        <v>14.4箱</v>
+      </c>
+    </row>
+    <row r="37" spans="8:17">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="8:17">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="8:17" ht="15.75">
+      <c r="H39" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="8:17">
+      <c r="H40" s="66">
         <v>44682</v>
       </c>
-      <c r="I33" s="71"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="86">
+      <c r="I40" s="72"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="87">
         <v>0</v>
       </c>
-      <c r="L33" s="86">
+      <c r="L40" s="87">
         <v>0</v>
       </c>
-      <c r="M33" s="86"/>
-      <c r="N33" s="78">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O33" s="91"/>
-      <c r="P33" s="97">
-        <f>SUM(I33:O33)</f>
-        <v>75</v>
-      </c>
-      <c r="Q33" s="100" t="str">
-        <f t="shared" ref="Q33:Q39" si="5">P33/150&amp;"箱"</f>
-        <v>0.5箱</v>
-      </c>
-    </row>
-    <row r="34" spans="8:17">
-      <c r="H34" s="66">
+      <c r="M40" s="87"/>
+      <c r="N40" s="79">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O40" s="92"/>
+      <c r="P40" s="98">
+        <f>SUM(I40:O40)</f>
+        <v>80</v>
+      </c>
+      <c r="Q40" s="101" t="str">
+        <f t="shared" ref="Q40:Q46" si="4">P40/150&amp;"箱"</f>
+        <v>0.533333333333333箱</v>
+      </c>
+    </row>
+    <row r="41" spans="8:17">
+      <c r="H41" s="66">
         <v>44689</v>
       </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79">
-        <f t="shared" ref="K34:L36" si="6">$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="L34" s="79">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O34" s="92"/>
-      <c r="P34" s="97">
-        <f>SUM(I34:O34)</f>
-        <v>225</v>
-      </c>
-      <c r="Q34" s="100" t="str">
+      <c r="I41" s="73"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80">
+        <f t="shared" ref="K41:L43" si="5">$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="L41" s="80">
         <f t="shared" si="5"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="35" spans="8:17">
-      <c r="H35" s="66">
+        <v>80</v>
+      </c>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O41" s="93"/>
+      <c r="P41" s="98">
+        <f>SUM(I41:O41)</f>
+        <v>240</v>
+      </c>
+      <c r="Q41" s="101" t="str">
+        <f t="shared" si="4"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="42" spans="8:17">
+      <c r="H42" s="66">
         <v>44696</v>
       </c>
-      <c r="I35" s="72"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="L35" s="79">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="97">
-        <f>SUM(I35:O35)</f>
-        <v>225</v>
-      </c>
-      <c r="Q35" s="100" t="str">
+      <c r="I42" s="73"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80">
         <f t="shared" si="5"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="36" spans="8:17" ht="15.75">
-      <c r="H36" s="66">
+        <v>80</v>
+      </c>
+      <c r="L42" s="80">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O42" s="93"/>
+      <c r="P42" s="98">
+        <f>SUM(I42:O42)</f>
+        <v>240</v>
+      </c>
+      <c r="Q42" s="101" t="str">
+        <f t="shared" si="4"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="43" spans="8:17" ht="15.75">
+      <c r="H43" s="66">
         <v>44703</v>
       </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="82">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="L36" s="82">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82">
-        <f>$D$7</f>
-        <v>75</v>
-      </c>
-      <c r="O36" s="93"/>
-      <c r="P36" s="97">
-        <f>SUM(I36:O36)</f>
-        <v>225</v>
-      </c>
-      <c r="Q36" s="100" t="str">
+      <c r="I43" s="73"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="83">
         <f t="shared" si="5"/>
-        <v>1.5箱</v>
-      </c>
-    </row>
-    <row r="37" spans="8:17" ht="15.75">
-      <c r="H37" s="67">
+        <v>80</v>
+      </c>
+      <c r="L43" s="83">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83">
+        <f>$D$14</f>
+        <v>80</v>
+      </c>
+      <c r="O43" s="94"/>
+      <c r="P43" s="98">
+        <f>SUM(I43:O43)</f>
+        <v>240</v>
+      </c>
+      <c r="Q43" s="101" t="str">
+        <f t="shared" si="4"/>
+        <v>1.6箱</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" ht="15.75">
+      <c r="H44" s="67">
         <v>44710</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="70">
-        <f>SUM(I37:O37)</f>
+      <c r="I44" s="74"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="71">
+        <f>SUM(I44:O44)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="101" t="str">
-        <f t="shared" si="5"/>
+      <c r="Q44" s="102" t="str">
+        <f t="shared" si="4"/>
         <v>0箱</v>
       </c>
     </row>
-    <row r="38" spans="8:17" ht="15.75">
-      <c r="H38" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="85">
-        <f>SUM(L33:L37)</f>
-        <v>225</v>
-      </c>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="98">
-        <f>SUM(P33:P37)</f>
-        <v>750</v>
-      </c>
-      <c r="Q38" s="104" t="str">
-        <f t="shared" si="5"/>
-        <v>5箱</v>
-      </c>
-    </row>
-    <row r="39" spans="8:17">
-      <c r="H39" s="2"/>
-      <c r="O39" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="P39" s="74">
-        <f>P8+P18+P28+P38</f>
-        <v>3375</v>
-      </c>
-      <c r="Q39" s="103" t="str">
-        <f t="shared" si="5"/>
-        <v>22.5箱</v>
+    <row r="45" spans="8:17" ht="15.75">
+      <c r="H45" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="86">
+        <f>SUM(L40:L44)</f>
+        <v>240</v>
+      </c>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="99">
+        <f>SUM(P40:P44)</f>
+        <v>800</v>
+      </c>
+      <c r="Q45" s="105" t="str">
+        <f t="shared" si="4"/>
+        <v>5.33333333333333箱</v>
+      </c>
+    </row>
+    <row r="46" spans="8:17">
+      <c r="H46" s="2"/>
+      <c r="O46" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="P46" s="75">
+        <f>P15+P25+P35+P45</f>
+        <v>2960</v>
+      </c>
+      <c r="Q46" s="104" t="str">
+        <f t="shared" si="4"/>
+        <v>19.7333333333333箱</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A21:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" r:id="rId1"/>
 </worksheet>
 </file>